--- a/数据整理/stocks/A股/科创板/688385-复旦微电.xlsx
+++ b/数据整理/stocks/A股/科创板/688385-复旦微电.xlsx
@@ -1,117 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q3" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>000522</t>
-  </si>
-  <si>
-    <t>673141</t>
-  </si>
-  <si>
-    <t>673143</t>
-  </si>
-  <si>
-    <t>华润元大信息传媒科技混合</t>
-  </si>
-  <si>
-    <t>西部利得景程灵活配置混合A</t>
-  </si>
-  <si>
-    <t>西部利得景程灵活配置混合C</t>
-  </si>
-  <si>
-    <t>1.71</t>
-  </si>
-  <si>
-    <t>1.12</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>67.42</t>
-  </si>
-  <si>
-    <t>92.89</t>
-  </si>
-  <si>
-    <t>3.83</t>
-  </si>
-  <si>
-    <t>3.79</t>
-  </si>
-  <si>
-    <t>0.0655</t>
-  </si>
-  <si>
-    <t>0.0424</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -134,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -436,115 +446,221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688385-复旦微电.xlsx
+++ b/数据整理/stocks/A股/科创板/688385-复旦微电.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -619,7 +620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,17 +631,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -650,13 +671,519 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8852</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5909</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012650</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2895</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004686</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏研究精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012651</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008033</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加科盈混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008034</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加科盈混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011444</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信瑞裕混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>51.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011445</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信瑞裕混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>51.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688385-复旦微电.xlsx
+++ b/数据整理/stocks/A股/科创板/688385-复旦微电.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1130,7 +1131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1141,17 +1142,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1161,14 +1182,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.33</v>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7925</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1177,13 +1220,537 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>012650</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4488</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3436</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012651</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1962</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002181</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安大安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1511</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>58.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>58.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688385-复旦微电.xlsx
+++ b/数据整理/stocks/A股/科创板/688385-复旦微电.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1681,7 +1682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1692,17 +1693,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1712,14 +1733,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.51</v>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1904</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1728,14 +1771,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.33</v>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8737</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1744,13 +1809,1273 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>012650</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6490</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6450</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6248</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3855</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3375</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012651</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2732</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2480</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004686</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏研究精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1617</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006121</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011712</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015078</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015460</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014871</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013504</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688385-复旦微电.xlsx
+++ b/数据整理/stocks/A股/科创板/688385-复旦微电.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,165 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000522</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华润元大信息传媒科技混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>67.42</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0655</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.14</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>673141</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>西部利得景程灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.89</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0424</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.51</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>673143</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>西部利得景程灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -622,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,26 +615,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.17</t>
+          <t>23.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.62</t>
+          <t>98.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8852</t>
+          <t>1.1904</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010016</t>
+          <t>506002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏科技前沿6个月定期开放混合A</t>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>30.15</t>
+          <t>31.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.53</t>
+          <t>96.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5909</t>
+          <t>0.8737</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -759,26 +691,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.20</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2895</t>
+          <t>0.6490</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000063</t>
+          <t>006348</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长盛电子信息主题灵活配置混合</t>
+          <t>银华盛利混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>14.43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>68.02</t>
+          <t>88.49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1910</t>
+          <t>0.6450</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004686</t>
+          <t>001048</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏研究精选股票</t>
+          <t>富国新兴产业股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>11.57</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.63</t>
+          <t>92.95</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1248</t>
+          <t>0.6248</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012651</t>
+          <t>506001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时半导体主题混合型证券投资基金C</t>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>14.12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.20</t>
+          <t>92.27</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0998</t>
+          <t>0.3855</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +833,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010017</t>
+          <t>012568</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏科技前沿6个月定期开放混合C</t>
+          <t>天弘高端制造混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.53</t>
+          <t>81.20</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0637</t>
+          <t>0.3375</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -939,36 +871,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008033</t>
+          <t>012651</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中加科盈混合A</t>
+          <t>博时半导体主题混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27.99</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0495</t>
+          <t>0.2732</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -977,32 +909,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008034</t>
+          <t>007202</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中加科盈混合C</t>
+          <t>天弘优质成长企业精选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>27.99</t>
+          <t>82.09</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0231</t>
+          <t>0.2480</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1015,36 +947,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005128</t>
+          <t>004686</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏永康添福混合</t>
+          <t>华夏研究精选股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>29.01</t>
+          <t>93.08</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0119</t>
+          <t>0.1617</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1053,36 +985,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011444</t>
+          <t>501099</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>创金合信瑞裕混合A</t>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>51.51</t>
+          <t>89.46</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0037</t>
+          <t>0.1309</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1091,34 +1023,832 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011445</t>
+          <t>100039</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>创金合信瑞裕混合C</t>
+          <t>富国通胀通缩主题混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006121</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011712</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015078</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015460</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014871</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013504</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安双核驱动混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>51.51</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="n">
-        <v>2</v>
+      <c r="H34" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1682,7 +2412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1743,26 +2473,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.76</t>
+          <t>31.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.48</t>
+          <t>97.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1904</t>
+          <t>0.8852</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1771,36 +2501,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>506002</t>
+          <t>010016</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+          <t>华夏科技前沿6个月定期开放混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31.54</t>
+          <t>30.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>96.80</t>
+          <t>89.53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8737</t>
+          <t>0.5909</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1819,26 +2549,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6490</t>
+          <t>0.2895</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1847,36 +2577,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006348</t>
+          <t>000063</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银华盛利混合</t>
+          <t>长盛电子信息主题灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14.43</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.49</t>
+          <t>68.02</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6450</t>
+          <t>0.1910</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1885,36 +2615,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001048</t>
+          <t>004686</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国新兴产业股票</t>
+          <t>华夏研究精选股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.57</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.95</t>
+          <t>92.63</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.6248</t>
+          <t>0.1248</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1923,36 +2653,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>506001</t>
+          <t>012651</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+          <t>博时半导体主题混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>14.12</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3855</t>
+          <t>0.0998</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1961,36 +2691,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012568</t>
+          <t>010017</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>天弘高端制造混合型证券投资基金A</t>
+          <t>华夏科技前沿6个月定期开放混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>81.20</t>
+          <t>89.53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3375</t>
+          <t>0.0637</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1999,36 +2729,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>012651</t>
+          <t>008033</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时半导体主题混合型证券投资基金C</t>
+          <t>中加科盈混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>27.99</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2732</t>
+          <t>0.0495</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -2037,32 +2767,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007202</t>
+          <t>008034</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天弘优质成长企业精选混合</t>
+          <t>中加科盈混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>82.09</t>
+          <t>27.99</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2480</t>
+          <t>0.0231</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -2075,36 +2805,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004686</t>
+          <t>005128</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏研究精选股票</t>
+          <t>华夏永康添福混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>29.01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1617</t>
+          <t>0.0119</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -2113,36 +2843,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>501099</t>
+          <t>011444</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+          <t>创金合信瑞裕混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>89.46</t>
+          <t>51.51</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1309</t>
+          <t>0.0037</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -2151,832 +2881,34 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>100039</t>
+          <t>011445</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富国通胀通缩主题混合</t>
+          <t>创金合信瑞裕混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>89.74</t>
+          <t>51.51</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1049</t>
-        </is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002707</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0960</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001728</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>银华战略新兴灵活配置定期开放混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0717</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002628</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>招商安博灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>78.01</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0648</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>012569</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>天弘高端制造混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>81.20</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0476</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006121</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华安双核驱动混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0384</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>011712</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫万众创新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0303</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>010503</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>招商稳兴混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>39.85</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0299</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002885</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫万众创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0244</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>000767</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华富国泰民安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>84.23</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0198</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005844</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>东方人工智能主题混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.99</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>700004</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>平安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>76.37</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0151</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>002629</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>招商安博灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>78.01</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>009658</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘低波动策略股票A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>90.06</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>003456</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>信达澳银新目标灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>89.08</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0105</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>010584</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>渤海汇金新动能主题混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>015078</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>平安灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>76.37</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>015460</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>天弘优质成长企业精选混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>82.09</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>014871</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>010504</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>招商稳兴混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>39.85</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>009775</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘低波动策略股票C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>90.06</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>013504</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>华安双核驱动混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2990,96 +2922,164 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.14</v>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.51</v>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.33</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.11</v>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688385-复旦微电.xlsx
+++ b/数据整理/stocks/A股/科创板/688385-复旦微电.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="D2" t="n">
-        <v>6.14</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>2.51</v>
+        <v>6.14</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>2.33</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -549,6 +566,3812 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8841</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8502</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5681</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3750</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0218</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0146</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009892</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国成长策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0073</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9669</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8950</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8783</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国创新企业灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8253</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>31.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8034</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华核心价值优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7426</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015686</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7173</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6262</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华盛利混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4657</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4611</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012098</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏成长机会一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4516</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4396</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4332</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4319</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012650</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3805</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008372</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国阿尔法两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>72.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3223</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013955</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3121</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2936</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011949</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2893</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2858</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012651</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2835</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009794</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>太平智选一年定期开放股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2033</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014611</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国核心科技12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013422</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>太平智行三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>75.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009085</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华丰享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001143</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华商量化进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家人工智能混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000609</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>630005</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华商动态阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013108</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>80.28</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014320</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014663</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010293</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华商量化优质精选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013107</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>80.28</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>78.59</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013461</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏扬成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006796</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001706</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>诺安积极回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>015593</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014558</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华商品质慧选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>37.98</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013674</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长城价值甄选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>64.32</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011828</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>015684</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银华盛利混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>64.89</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011712</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>大摩万众创新混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013462</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏扬成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012847</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>诺安积极回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>大摩万众创新混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014319</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014612</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>富国核心科技12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011829</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>014664</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>55.14</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011567</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>富国消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>014433</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国泰智享科技1个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>67.22</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>013675</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长城价值甄选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>64.32</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014871</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>015689</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>富国价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>014162</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>万家人工智能混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>013584</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>招商品质领航混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>71.52</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013583</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>招商品质领航混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>71.52</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>55.14</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>014559</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华商品质慧选混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002860</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>42.74</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>013046</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>富国产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>64.89</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>016048</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>013153</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014434</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>国泰智享科技1个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>67.22</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>015849</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>富国创新企业灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>015158</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>76.64</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>37.98</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1856,7 +5679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2406,7 +6229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2916,7 +6739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688385-复旦微电.xlsx
+++ b/数据整理/stocks/A股/科创板/688385-复旦微电.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D2" t="n">
-        <v>24.5</v>
+        <v>24.86</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="D3" t="n">
-        <v>6.14</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>2.51</v>
+        <v>6.14</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>2.33</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -566,6 +583,3700 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005609</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国军工主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2583</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7258</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5786</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时科创板三年定开混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2753</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2179</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009892</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国成长策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1762</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1655</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>100022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国天瑞强势地区精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0378</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015686</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7612</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国创新企业灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7061</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012650</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5755</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华核心价值优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5053</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4859</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4216</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011113</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国军工主题混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4074</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4063</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华盛利混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3921</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3741</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012651</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3716</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3047</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3012</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2562</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2510</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2407</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2075</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1981</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1874</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013422</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>太平智行三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009794</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>太平智选一年定期开放股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009085</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华丰享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>588100</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>73.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>588200</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实上证科创板芯片ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014606</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014686</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商核心装备混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014607</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015092</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇安远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>588260</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015684</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>银华盛利混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>78.23</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006796</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011712</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>大摩万众创新混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>588290</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华安上证科创板芯片ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>015585</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000030</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长城核心优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014687</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商核心装备混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>大摩万众创新混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>040009</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华安稳定收益债券A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>040010</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华安稳定收益债券B</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009627</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>015593</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013046</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富国产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014989</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009719</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商增浩一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014433</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国泰智享科技1个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>61.54</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009628</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159620</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华夏中证智选500成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005536</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>渤海汇金量化成长混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>015967</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>永赢半导体产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009718</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商增浩一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>015689</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>富国价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011567</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>富国消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>015093</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>汇安远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>014871</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013584</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>招商品质领航混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>62.41</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>015849</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>富国创新企业灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>013583</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>招商品质领航混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>62.41</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>015968</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>永赢半导体产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>013153</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>013044</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>014434</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国泰智享科技1个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>61.54</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009440</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>光大保德信裕鑫混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009441</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>光大保德信裕鑫混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4371,7 +8082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5679,7 +9390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6229,7 +9940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6739,7 +10450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
